--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,13 +17,16 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -42,12 +45,30 @@
   <si>
     <t>Id</t>
   </si>
+  <si>
+    <t>Consultar playas de estacionamiento por filtros avanzados</t>
+  </si>
+  <si>
+    <t>Consultar playas de estacionamiento por ciudad</t>
+  </si>
+  <si>
+    <t>Consultar todas las playas de estacionamiento de una ciudad seleccionada, que cumpla con los filtros avanzados seleccionados.</t>
+  </si>
+  <si>
+    <t>Buscar todas las playas de estacionamiento de una ciudad seleccionada.</t>
+  </si>
+  <si>
+    <t>Consultar playas de estacionamiento por direccion</t>
+  </si>
+  <si>
+    <t>Consultar todas las playas de estacionamiento de una ciudad seleccionada, cercanas a una direccion.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +217,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -246,7 +267,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -296,7 +317,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -346,7 +367,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -396,7 +417,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -434,6 +455,81 @@
         <row r="7">
           <cell r="B7" t="str">
             <v>Pendiente de revision</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DatosGenerales"/>
+      <sheetName val="Precondiciones"/>
+      <sheetName val="Pasos"/>
+      <sheetName val="Control de cambios"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DatosGenerales"/>
+      <sheetName val="Precondiciones"/>
+      <sheetName val="Pasos"/>
+      <sheetName val="Control de cambios"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DatosGenerales"/>
+      <sheetName val="Precondiciones"/>
+      <sheetName val="Pasos"/>
+      <sheetName val="Control de cambios"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>8</v>
           </cell>
         </row>
       </sheetData>
@@ -520,7 +616,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -555,7 +650,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,14 +825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
@@ -748,7 +842,7 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -768,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <f>[1]DatosGenerales!$B$1</f>
         <v>1</v>
@@ -794,7 +888,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.25" thickBot="1">
       <c r="A3" s="7" t="str">
         <f>[2]DatosGenerales!$B$1</f>
         <v>2</v>
@@ -820,7 +914,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="26.25" thickBot="1">
       <c r="A4" s="7" t="str">
         <f>[3]DatosGenerales!$B$1</f>
         <v>3</v>
@@ -846,7 +940,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="39" thickBot="1">
       <c r="A5" s="7" t="str">
         <f>[4]DatosGenerales!$B$1</f>
         <v>4</v>
@@ -872,7 +966,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="7" t="str">
         <f>[5]DatosGenerales!$B$1</f>
         <v>5</v>
@@ -898,31 +992,73 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A7" s="7" t="str">
+        <f>[6]DatosGenerales!$B$1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>[5]DatosGenerales!$B$7</f>
+        <v>Pendiente de revision</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" thickBot="1">
+      <c r="A8" s="7" t="str">
+        <f>[7]DatosGenerales!$B$1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f>[5]DatosGenerales!$B$7</f>
+        <v>Pendiente de revision</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.25">
+      <c r="A9" s="7" t="str">
+        <f>[8]DatosGenerales!$B$1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>[5]DatosGenerales!$B$7</f>
+        <v>Pendiente de revision</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -930,7 +1066,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -938,7 +1074,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -946,7 +1082,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -954,7 +1090,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -962,7 +1098,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -970,7 +1106,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -978,7 +1114,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -986,7 +1122,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -994,7 +1130,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1002,7 +1138,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1010,7 +1146,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1018,7 +1154,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1026,7 +1162,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1034,7 +1170,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1042,7 +1178,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1050,7 +1186,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1058,7 +1194,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1066,7 +1202,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1074,7 +1210,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1089,31 +1225,34 @@
     <hyperlink ref="A4" r:id="rId3" display="3.xlsx"/>
     <hyperlink ref="A5" r:id="rId4" display="4.xlsx"/>
     <hyperlink ref="A6" r:id="rId5" display="5.xlsx"/>
+    <hyperlink ref="A7" r:id="rId6" display="6.xlsx"/>
+    <hyperlink ref="A8" r:id="rId7" display="7.xlsx"/>
+    <hyperlink ref="A9" r:id="rId8" display="8.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nombre</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>Consultar todas las playas de estacionamiento de una ciudad seleccionada, cercanas a una direccion.</t>
+  </si>
+  <si>
+    <t>Registrar Usuario</t>
+  </si>
+  <si>
+    <t>Registrar un usuario en la base de datos</t>
+  </si>
+  <si>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Iniciar sesion en el sistema con un usuario</t>
+  </si>
+  <si>
+    <t>Asignar roles a usuario</t>
+  </si>
+  <si>
+    <t>Asignar roles a un usuario para que pueda utilizar funcionalidad del sistema</t>
+  </si>
+  <si>
+    <t>Asignar Permisos a Rol</t>
+  </si>
+  <si>
+    <t>Asignar permisos a un rol</t>
   </si>
 </sst>
 </file>
@@ -533,9 +557,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -828,13 +852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
@@ -1036,7 +1060,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.25">
+    <row r="9" spans="1:6" ht="39" thickBot="1">
       <c r="A9" s="7" t="str">
         <f>[8]DatosGenerales!$B$1</f>
         <v>8</v>
@@ -1058,37 +1082,61 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Asignar permisos a un rol</t>
+  </si>
+  <si>
+    <t>Crear Rol</t>
+  </si>
+  <si>
+    <t>Crear un nuevo rol en el sistema</t>
   </si>
 </sst>
 </file>
@@ -850,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1092,7 +1098,9 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1106,45 +1114,59 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="26.25" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
@@ -1195,12 +1217,12 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -1265,6 +1287,14 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,10 +213,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -232,8 +243,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -288,9 +303,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -338,9 +353,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -388,9 +403,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -438,9 +453,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -477,20 +492,15 @@
             <v>4</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>Pendiente de revision</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -513,9 +523,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -538,9 +548,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -858,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1014,8 +1024,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5">
-        <f>[5]DatosGenerales!$B$6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>[5]DatosGenerales!$B$7</f>
@@ -1089,7 +1098,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1105,7 +1114,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1121,7 +1130,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1137,7 +1146,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1153,7 +1162,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1306,9 +1315,14 @@
     <hyperlink ref="A7" r:id="rId6" display="6.xlsx"/>
     <hyperlink ref="A8" r:id="rId7" display="7.xlsx"/>
     <hyperlink ref="A9" r:id="rId8" display="8.xlsx"/>
+    <hyperlink ref="A10" r:id="rId9" display="9.xlsx"/>
+    <hyperlink ref="A11" r:id="rId10" display="10.xlsx"/>
+    <hyperlink ref="A12" r:id="rId11" display="11.xlsx"/>
+    <hyperlink ref="A13" r:id="rId12" display="12.xlsx"/>
+    <hyperlink ref="A14" r:id="rId13" display="13.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,12 +21,12 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -92,13 +92,28 @@
   </si>
   <si>
     <t>Crear un nuevo rol en el sistema</t>
+  </si>
+  <si>
+    <t>Buscar playas en una ciudad</t>
+  </si>
+  <si>
+    <t>Buscar las playas esxistentes en una determinada ciudad</t>
+  </si>
+  <si>
+    <t>Pendiente de revision</t>
+  </si>
+  <si>
+    <t>Buscar playas en una ciudad sin playas</t>
+  </si>
+  <si>
+    <t>Buscar las playas esxistentes en una determinada ciudad, en la que no hay playas cargadas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -303,16 +318,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -353,16 +368,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -389,7 +404,7 @@
         </row>
         <row r="5">
           <cell r="B5">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="6">
@@ -403,16 +418,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -453,16 +468,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -498,16 +513,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -523,16 +538,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -548,16 +563,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -573,9 +588,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -656,6 +671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -690,6 +706,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -865,14 +882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
@@ -882,7 +899,7 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" thickBot="1">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -902,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1">
+    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>[1]DatosGenerales!$B$1</f>
         <v>1</v>
@@ -928,7 +945,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1">
+    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>[2]DatosGenerales!$B$1</f>
         <v>2</v>
@@ -954,7 +971,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1">
+    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>[3]DatosGenerales!$B$1</f>
         <v>3</v>
@@ -969,7 +986,7 @@
       </c>
       <c r="D4" s="6">
         <f>[3]DatosGenerales!$B$5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <f>[3]DatosGenerales!$B$6</f>
@@ -980,7 +997,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1">
+    <row r="5" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>[4]DatosGenerales!$B$1</f>
         <v>4</v>
@@ -1006,7 +1023,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1">
+    <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>[5]DatosGenerales!$B$1</f>
         <v>5</v>
@@ -1031,7 +1048,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1">
+    <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>[6]DatosGenerales!$B$1</f>
         <v>6</v>
@@ -1053,7 +1070,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39" thickBot="1">
+    <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>[7]DatosGenerales!$B$1</f>
         <v>7</v>
@@ -1075,7 +1092,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39" thickBot="1">
+    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>[8]DatosGenerales!$B$1</f>
         <v>8</v>
@@ -1097,7 +1114,7 @@
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1113,7 +1130,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1129,7 +1146,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1145,7 +1162,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1">
+    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1161,7 +1178,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1177,23 +1194,47 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1201,7 +1242,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1209,7 +1250,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1217,7 +1258,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1225,7 +1266,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1233,7 +1274,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1241,7 +1282,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1249,7 +1290,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1257,7 +1298,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1265,7 +1306,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1273,7 +1314,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1281,7 +1322,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1289,7 +1330,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1297,7 +1338,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1320,31 +1361,33 @@
     <hyperlink ref="A12" r:id="rId11" display="11.xlsx"/>
     <hyperlink ref="A13" r:id="rId12" display="12.xlsx"/>
     <hyperlink ref="A14" r:id="rId13" display="13.xlsx"/>
+    <hyperlink ref="A15" r:id="rId14" display="14 - lucas.xlsx"/>
+    <hyperlink ref="A16" r:id="rId15" display="15 - lucas.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Buscar las playas esxistentes en una determinada ciudad, en la que no hay playas cargadas.</t>
+  </si>
+  <si>
+    <t>16_lucas</t>
+  </si>
+  <si>
+    <t>Buscar playas en una ciudad por tipo de vehiculo</t>
+  </si>
+  <si>
+    <t>Buscar las playas esxistentes en una determinada ciudad, por un tipo de vehiculo en particular</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,12 +895,12 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
@@ -1214,7 +1223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1234,13 +1243,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1363,9 +1384,10 @@
     <hyperlink ref="A14" r:id="rId13" display="13.xlsx"/>
     <hyperlink ref="A15" r:id="rId14" display="14 - lucas.xlsx"/>
     <hyperlink ref="A16" r:id="rId15" display="15 - lucas.xlsx"/>
+    <hyperlink ref="A17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,12 +21,12 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,13 +116,61 @@
   </si>
   <si>
     <t>Buscar las playas esxistentes en una determinada ciudad, por un tipo de vehiculo en particular</t>
+  </si>
+  <si>
+    <t>Consultar estadisticas de disponibilidad de playas en tiempo real</t>
+  </si>
+  <si>
+    <t>Crear zona</t>
+  </si>
+  <si>
+    <t>Crear una nueva zona de interes para un usuario</t>
+  </si>
+  <si>
+    <t>Modificar una zona de interes para un usuario</t>
+  </si>
+  <si>
+    <t>Eliminar una zona de interes para un usuario</t>
+  </si>
+  <si>
+    <t>Consultar la disponibilidad de las playas de una ciudad en tiempo real</t>
+  </si>
+  <si>
+    <t>Consultar las estadistica historicas de las consultas a las playas de una ciudad</t>
+  </si>
+  <si>
+    <t>Consultar estadisticas historicas de consultas a playas</t>
+  </si>
+  <si>
+    <t>Consultar las estadisticas historicas de la disponibilidad promedio por tipos de vehiculos de una ciudad</t>
+  </si>
+  <si>
+    <t>Consultar estadisticas historicas de disponibilidad promedio por tipo de vehiculo</t>
+  </si>
+  <si>
+    <t>Consultar estadisticas historicas de consultas por tipo de playa</t>
+  </si>
+  <si>
+    <t>Consultar las estadisticas historicas de las consultas de los tipos de playas</t>
+  </si>
+  <si>
+    <t>Consultar las estadisticas historicas de las disponibilidades promedio de las zonas de una ciudad</t>
+  </si>
+  <si>
+    <t>Consultar estadisticas historicas de las disponibilidades promedio de las zonas de una ciudad</t>
+  </si>
+  <si>
+    <t>Modificar zona</t>
+  </si>
+  <si>
+    <t>Eliminar zona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,11 +292,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -267,8 +312,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -286,7 +331,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -336,7 +381,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -386,7 +431,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -436,7 +481,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -486,7 +531,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -531,7 +576,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -547,16 +592,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -572,16 +617,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DatosGenerales"/>
@@ -680,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -715,7 +759,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
@@ -908,464 +951,528 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A2" s="6">
         <f>[1]DatosGenerales!$B$1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>[1]DatosGenerales!$B$2</f>
         <v>Crear playa de estacionamiento</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>[1]DatosGenerales!$B$3</f>
         <v>Crear una nueva playa de estacionamiento</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>[1]DatosGenerales!$B$5</f>
         <v>21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>[1]DatosGenerales!$B$6</f>
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>[1]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="str">
+    <row r="3" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A3" s="6" t="str">
         <f>[2]DatosGenerales!$B$1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>[2]DatosGenerales!$B$2</f>
         <v>Modificar playa de estacionamiento</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <f>[2]DatosGenerales!$B$3</f>
         <v>partiendo de una playa de estacionamiento existente se le modificaran algunos de sus datos</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>[2]DatosGenerales!$B$5</f>
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>[2]DatosGenerales!$B$6</f>
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f>[2]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+    <row r="4" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A4" s="6" t="str">
         <f>[3]DatosGenerales!$B$1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f>[3]DatosGenerales!$B$2</f>
         <v>Eliminar playa de estacionamiento</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>[3]DatosGenerales!$B$3</f>
         <v>buscar una playa de estacionamiento existente y eliminarla</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>[3]DatosGenerales!$B$5</f>
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>[3]DatosGenerales!$B$6</f>
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <f>[3]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
+    <row r="5" spans="1:6" ht="39" thickBot="1">
+      <c r="A5" s="6" t="str">
         <f>[4]DatosGenerales!$B$1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
         <f>[4]DatosGenerales!$B$2</f>
         <v>Agregar direccion a playa de estacionamiento</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>[4]DatosGenerales!$B$3</f>
         <v>Partiendo de una playa de estacionamiento existente se le agregará un nuevo domicilio a la misma</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>[4]DatosGenerales!$B$5</f>
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>[4]DatosGenerales!$B$6</f>
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f>[4]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A6" s="6" t="str">
         <f>[5]DatosGenerales!$B$1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f>[5]DatosGenerales!$B$2</f>
         <v>Consultar playa de estacionamiento por nombre</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="4" t="str">
         <f>[5]DatosGenerales!$B$3</f>
         <v>Buscar una playa de estacionamiento por nombre para ver sus datos</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>[5]DatosGenerales!$B$5</f>
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="4" t="str">
         <f>[5]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="str">
+    <row r="7" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A7" s="6" t="str">
         <f>[6]DatosGenerales!$B$1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f>[5]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="str">
+    <row r="8" spans="1:6" ht="39" thickBot="1">
+      <c r="A8" s="6" t="str">
         <f>[7]DatosGenerales!$B$1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="4" t="str">
         <f>[5]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
+    <row r="9" spans="1:6" ht="39" thickBot="1">
+      <c r="A9" s="6" t="str">
         <f>[8]DatosGenerales!$B$1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="4" t="str">
         <f>[5]DatosGenerales!$B$7</f>
         <v>Pendiente de revision</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+    <row r="18" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="39" thickBot="1">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1385,31 +1492,39 @@
     <hyperlink ref="A15" r:id="rId14" display="14 - lucas.xlsx"/>
     <hyperlink ref="A16" r:id="rId15" display="15 - lucas.xlsx"/>
     <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17" display="17.xlsx"/>
+    <hyperlink ref="A19" r:id="rId18" display="18.xlsx"/>
+    <hyperlink ref="A20" r:id="rId19" display="19.xlsx"/>
+    <hyperlink ref="A21" r:id="rId20" display="20.xlsx"/>
+    <hyperlink ref="A22" r:id="rId21" display="21.xlsx"/>
+    <hyperlink ref="A23" r:id="rId22" display="22.xlsx"/>
+    <hyperlink ref="A24" r:id="rId23" display="23.xlsx"/>
+    <hyperlink ref="A25" r:id="rId24" display="24.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Producto/Web/Casos de prueba/Resumen.xlsx
+++ b/Producto/Web/Casos de prueba/Resumen.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1319,7 +1319,9 @@
       <c r="D18" s="5">
         <v>8</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>25</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="39" thickBot="1">
@@ -1335,7 +1337,9 @@
       <c r="D19" s="5">
         <v>9</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>25</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="26.25" thickBot="1">
@@ -1351,7 +1355,9 @@
       <c r="D20" s="5">
         <v>9</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>25</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="26.25" thickBot="1">
@@ -1367,7 +1373,9 @@
       <c r="D21" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>24</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="39" thickBot="1">
@@ -1383,7 +1391,9 @@
       <c r="D22" s="5">
         <v>8</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>25</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
@@ -1399,7 +1409,9 @@
       <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4">
+        <v>23</v>
+      </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
@@ -1415,7 +1427,9 @@
       <c r="D24" s="5">
         <v>6</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
@@ -1431,7 +1445,9 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>23</v>
+      </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
